--- a/Kansas City, MO/Kansas_City.xlsx
+++ b/Kansas City, MO/Kansas_City.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Dept/Division</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Funds 2020-2021</t>
+    <t xml:space="preserve">General Funds 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Economic Development</t>
@@ -181,7 +181,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
